--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3865.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3865.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.896703944365429</v>
+        <v>4.234005928039551</v>
       </c>
       <c r="B1">
-        <v>3.361320435995396</v>
+        <v>4.983691692352295</v>
       </c>
       <c r="C1">
-        <v>3.568007652260693</v>
+        <v>4.112290859222412</v>
       </c>
       <c r="D1">
-        <v>2.760072709421156</v>
+        <v>4.908996105194092</v>
       </c>
       <c r="E1">
-        <v>0.7877995219461472</v>
+        <v>4.686135292053223</v>
       </c>
     </row>
   </sheetData>
